--- a/DOCS/PROJECT PLAN/Project Plan.xlsx
+++ b/DOCS/PROJECT PLAN/Project Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1ФЕФУ\Технологии коллективной разработки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honor\Documents\GitHub\DevTech\DOCS\PROJECT PLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEFDB6A-3DA6-496E-B4C8-7B259B55D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D922771-61A1-43B7-9C9C-2F010A614AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -194,6 +193,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +514,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -527,203 +529,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25" x14ac:dyDescent="0.5">
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="25" x14ac:dyDescent="0.5">
-      <c r="F6" s="3"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>44837</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>44844</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>44851</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>44858</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>44865</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>44872</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>44879</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>44886</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>44893</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>44900</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>44907</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>44914</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>44921</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H2:N3"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
